--- a/Results/daily_return/df_portfolio_lasso_daily.xlsx
+++ b/Results/daily_return/df_portfolio_lasso_daily.xlsx
@@ -5101,7 +5101,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.01887841586779341</v>
+        <v>1.936992454344276e-05</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.002476129321368688</v>
+        <v>0.002407555988533251</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.009034524735900809</v>
+        <v>-0.001057058055095022</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.008370179525281886</v>
+        <v>0.004609178296038363</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.007738279124145214</v>
+        <v>-0.01553846361611395</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.008394158702475781</v>
+        <v>0.008813485334598095</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.01291426223923923</v>
+        <v>0.005703846092335873</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.0003878700970633705</v>
+        <v>0.006991866353778279</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.007560494622586619</v>
+        <v>0.01049049304229142</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5173,7 +5173,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.01856890949748176</v>
+        <v>-0.0112094323394699</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.005053283292495719</v>
+        <v>0.005498195452505327</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.004376264667987764</v>
+        <v>-0.005506704176893741</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.006203747731392043</v>
+        <v>-0.004770372199533296</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.001730396710033845</v>
+        <v>0.001677886027381157</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.01048992184073862</v>
+        <v>0.0162232827152917</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.000331422105244485</v>
+        <v>-0.01088585327333233</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.002597192386651754</v>
+        <v>-0.005081360111634265</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.001624165139431551</v>
+        <v>0.007726775428945168</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.02660073341823721</v>
+        <v>0.005509348381027628</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.00154667021607181</v>
+        <v>-0.005282276661835654</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5277,7 +5277,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.002947425377559695</v>
+        <v>-0.009701797067658434</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5285,7 +5285,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.007483799887033201</v>
+        <v>-0.001119557158967766</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5293,7 +5293,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.007160190999822921</v>
+        <v>-0.006911334768863782</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5301,7 +5301,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.009432924371494268</v>
+        <v>0.008377214403484221</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5309,7 +5309,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.001131571297335804</v>
+        <v>-0.006786119589257881</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5317,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.001615430915437112</v>
+        <v>-0.0008777054008015241</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.01494478119343783</v>
+        <v>-0.00663134794218821</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.01126671807088077</v>
+        <v>-0.005361570723736499</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.03081802767266216</v>
+        <v>0.0208241236438057</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.001283620823405694</v>
+        <v>-0.005403870213672204</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.001812013762270307</v>
+        <v>-0.0004003358390652439</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.01926747498445416</v>
+        <v>0.007461410034188569</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.006287151954213075</v>
+        <v>-0.003619777138013351</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.01464341562511372</v>
+        <v>0.01242939389825562</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.005928397495421614</v>
+        <v>-0.001085896038887741</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.004944131145046535</v>
+        <v>0.006850007809928318</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.003604450966373694</v>
+        <v>0.002557561752234879</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.0004515175061077468</v>
+        <v>-0.002791580644809002</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.003382114778454251</v>
+        <v>0.005136121100952292</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.006209519051960715</v>
+        <v>0.008076644391758488</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.006141437545710738</v>
+        <v>-0.01023456153809338</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.002464806290789672</v>
+        <v>-0.001036403682003291</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.006847922168882219</v>
+        <v>-0.01204311307412522</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.009456707160875582</v>
+        <v>0.009294874944259854</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.0009614748345810213</v>
+        <v>0.004038265264347933</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.007964490836911697</v>
+        <v>-0.00704823503487258</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.00692473187463013</v>
+        <v>0.003144132748529021</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.01157347678057329</v>
+        <v>-0.01517259090136647</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.02902826538095496</v>
+        <v>0.02111498430157703</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.01342672225597945</v>
+        <v>0.02428477570804533</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5517,7 +5517,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.004447169562540908</v>
+        <v>-0.006911556821078874</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5525,7 +5525,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.01309643419460483</v>
+        <v>-0.003464361853333655</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5549,7 +5549,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.007664721066860377</v>
+        <v>0.01537876419600413</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.003255324818448692</v>
+        <v>0.0001122117367257211</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5565,7 +5565,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.02288790745959815</v>
+        <v>-0.03011671542928716</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5573,7 +5573,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.002839147077938222</v>
+        <v>-0.004561523004323052</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5581,7 +5581,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.005410288412748275</v>
+        <v>-0.003379346946432575</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5589,7 +5589,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.008788336372897195</v>
+        <v>-0.007871637344529</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5597,7 +5597,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.01132211641042278</v>
+        <v>0.01028789193726647</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5605,7 +5605,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.007835662431294337</v>
+        <v>-0.01065155974099478</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5613,7 +5613,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.02746679548980415</v>
+        <v>-0.0337554537789461</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5621,7 +5621,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.004986560079482315</v>
+        <v>0.0202780014158803</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.005922842956923555</v>
+        <v>-0.002261948290917987</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.01431551276170276</v>
+        <v>0.03571577245691963</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5645,7 +5645,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.01534407196545292</v>
+        <v>0.01530341582266923</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5653,7 +5653,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.001987598506051769</v>
+        <v>0.008882439573843199</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5661,7 +5661,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.01396591130359046</v>
+        <v>0.01498438214768637</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5669,7 +5669,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.005433226229667287</v>
+        <v>0.005516954241200139</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5677,7 +5677,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.01263706404354907</v>
+        <v>0.007811711369113353</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5685,7 +5685,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.005386174655311946</v>
+        <v>0.01590629702876542</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5693,7 +5693,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.003622033909766421</v>
+        <v>0.006491533027926952</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5701,7 +5701,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.00457736610393283</v>
+        <v>-0.007048687573480593</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5709,7 +5709,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.01968931942377044</v>
+        <v>0.02361165568665674</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5717,7 +5717,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.007337981061119266</v>
+        <v>0.002897384766410071</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5725,7 +5725,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.002975173634267838</v>
+        <v>0.009419415397104679</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5733,7 +5733,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-0.0007018259277014979</v>
+        <v>-0.002206886276086747</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5741,7 +5741,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.004547318535933309</v>
+        <v>0.007228979072797757</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5749,7 +5749,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.001619056323029882</v>
+        <v>-0.003506709563180143</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5757,7 +5757,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.000985536134611023</v>
+        <v>-0.01203943767644672</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -6445,7 +6445,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.008630476917680771</v>
+        <v>0.01277097227591964</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6453,7 +6453,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.001245415273227939</v>
+        <v>0.0001340209563967183</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -6461,7 +6461,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.007786538445244852</v>
+        <v>0.002895845450936512</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6485,7 +6485,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>-0.01049429687161762</v>
+        <v>-0.006879762682518302</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -6493,7 +6493,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.002392443180053471</v>
+        <v>-8.136004444497412e-05</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6501,7 +6501,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.0005443355604295364</v>
+        <v>-0.002485775925177937</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6509,7 +6509,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.002994756872731288</v>
+        <v>0.002275847380306712</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6517,7 +6517,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.01148691496057297</v>
+        <v>0.007511771239271266</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6525,7 +6525,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>-0.007519802957279224</v>
+        <v>-0.00521359331109718</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6533,7 +6533,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.01442047195380447</v>
+        <v>0.009006032122512884</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6541,7 +6541,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>-0.01401521613035407</v>
+        <v>-0.0138815367869985</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -6549,7 +6549,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-0.003944530605229945</v>
+        <v>-0.01097934357104959</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6557,7 +6557,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-0.0005800526390873707</v>
+        <v>-0.003663967603077984</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6565,7 +6565,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.0108009570374658</v>
+        <v>0.004830101685662987</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6573,7 +6573,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>-0.02621904483454886</v>
+        <v>-0.01302991792243191</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6581,7 +6581,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.008178198724062663</v>
+        <v>-0.00604675227318874</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6589,7 +6589,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>-0.006359098340055077</v>
+        <v>-0.01657728956473147</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6597,7 +6597,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.0001053637263527174</v>
+        <v>0.001795297520881557</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6605,7 +6605,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>-0.002919241882305741</v>
+        <v>0.00200969448333478</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6613,7 +6613,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.004520217458394858</v>
+        <v>0.01478336598187423</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6621,7 +6621,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>-0.01522666672308801</v>
+        <v>-0.01139215165597549</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6629,7 +6629,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.005084476884337907</v>
+        <v>0.002313514767275433</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6637,7 +6637,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.01370685465406804</v>
+        <v>0.01152529052709335</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6645,7 +6645,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>-0.009235125610746861</v>
+        <v>-0.005385475235387299</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -6653,7 +6653,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>-0.001744242588722137</v>
+        <v>-0.01854733544638673</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -6661,7 +6661,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>-0.01370253904049068</v>
+        <v>-0.0008603348828522993</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -6669,7 +6669,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.007773017857725757</v>
+        <v>0.01014482322783764</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6677,7 +6677,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.008355509826118898</v>
+        <v>0.008400541395664473</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6685,7 +6685,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>-0.008253926070171756</v>
+        <v>-0.001325275127052435</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -6693,7 +6693,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.0132191336984075</v>
+        <v>0.01113617422409508</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -6701,7 +6701,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>-0.0004479145552859333</v>
+        <v>-0.0009351417752250259</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -6709,7 +6709,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>-0.009608383396946127</v>
+        <v>-0.0120571207153416</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -6717,7 +6717,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.01464236075015374</v>
+        <v>0.01412532979006885</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6725,7 +6725,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.001877039027013394</v>
+        <v>0.005798139271935801</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6733,7 +6733,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>-0.001168287273276833</v>
+        <v>-0.004996135006031439</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6741,7 +6741,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.007613837327975565</v>
+        <v>0.008684570229933611</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -6749,7 +6749,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>-0.003907899447013933</v>
+        <v>-0.001778714742984749</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6757,7 +6757,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>-0.002106589637206626</v>
+        <v>-0.0005396360318130404</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -6765,7 +6765,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.00724919089516919</v>
+        <v>0.006672258310631017</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6773,7 +6773,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>-0.003676275405129812</v>
+        <v>-0.003705905655880455</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -6781,7 +6781,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1.622526241901591e-05</v>
+        <v>-0.004366252034651868</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6789,7 +6789,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.00460943676869663</v>
+        <v>0.00552514654125922</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -6797,7 +6797,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.001881536513644504</v>
+        <v>-0.0008929423524862547</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -6805,7 +6805,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.003266731525094463</v>
+        <v>0.00349957021845306</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6813,7 +6813,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>-0.001280150779458777</v>
+        <v>-0.001224358845981028</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -6821,7 +6821,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>-0.0006501324538527552</v>
+        <v>0.0007949868323178107</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -6829,7 +6829,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>-0.0007222299021100295</v>
+        <v>-0.003085143533759428</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -6837,7 +6837,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>-0.01057705162147836</v>
+        <v>-0.007459585016064979</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -6845,7 +6845,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.001748099782841327</v>
+        <v>0.00320637833236279</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -6853,7 +6853,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.00172574203844154</v>
+        <v>-0.001728692009952951</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6861,7 +6861,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>-0.01280102249782624</v>
+        <v>-0.01011809320807736</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -6869,7 +6869,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>-0.009382454580240876</v>
+        <v>-0.009656660916964644</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6877,7 +6877,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.009226114282868006</v>
+        <v>0.01181715578321872</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6885,7 +6885,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>-0.01196833990180243</v>
+        <v>-0.01015539902776127</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6893,7 +6893,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.01104156136576809</v>
+        <v>0.01219692983191686</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6901,7 +6901,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>-0.01627874319631387</v>
+        <v>-0.01784778763378506</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6909,7 +6909,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>-0.00499078232475678</v>
+        <v>-0.003044399797738267</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6917,7 +6917,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>-0.003188552883484783</v>
+        <v>-0.004676737255866711</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6925,7 +6925,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.01256155712802735</v>
+        <v>0.01143082589927204</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6933,7 +6933,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>-0.01881890349538479</v>
+        <v>-0.02108931306032942</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6941,7 +6941,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.005841847981053204</v>
+        <v>0.007114925593609829</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6949,7 +6949,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.006955529971163337</v>
+        <v>0.004134184501437156</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6957,7 +6957,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.0007509572759258646</v>
+        <v>-0.0004646134800233931</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6965,7 +6965,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>-0.01849271777938515</v>
+        <v>-0.007552683256643473</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6973,7 +6973,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>-0.006996181098751148</v>
+        <v>0.004192138475254511</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6981,7 +6981,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.009507431067572816</v>
+        <v>0.01033295093974766</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6989,7 +6989,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>-0.01089853628438421</v>
+        <v>-0.008554518633859247</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6997,7 +6997,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>-0.02070352138717289</v>
+        <v>-0.0126536761628747</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -7005,7 +7005,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.02163466569736996</v>
+        <v>0.02199357122024636</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -7013,7 +7013,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>-0.02746331784321929</v>
+        <v>-0.02579334746709335</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -7021,7 +7021,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>-0.06350657896184936</v>
+        <v>-0.04293854313099661</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -7029,7 +7029,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>-0.01732476698059424</v>
+        <v>-0.01033298254832255</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -7037,7 +7037,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.009701051847921872</v>
+        <v>0.01511000481309935</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -7045,7 +7045,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.007186404572185547</v>
+        <v>0.002810778258130719</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -7053,7 +7053,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.01271067565976418</v>
+        <v>0.00485920612141885</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -7061,7 +7061,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.01750757225088076</v>
+        <v>0.001282728020913972</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -7069,7 +7069,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.01190804579405344</v>
+        <v>0.009063122708283643</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -7077,7 +7077,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.0370582025871844</v>
+        <v>0.02393722437070673</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -7085,7 +7085,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>-0.0167395386489515</v>
+        <v>-0.01172569613648054</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -7093,7 +7093,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>0.01167619436052241</v>
+        <v>0.01403984427259896</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -7101,7 +7101,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.01182149022831737</v>
+        <v>0.005844683166123612</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -7109,7 +7109,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>0.003504148335168644</v>
+        <v>0.005224827021893958</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -7117,7 +7117,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>0.01868458431722684</v>
+        <v>0.01720087433464771</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -7125,7 +7125,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>-0.003619731684428418</v>
+        <v>-0.0005869200425695411</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -7133,7 +7133,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>-0.009885503473857853</v>
+        <v>0.006645476765623187</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -7141,7 +7141,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.03816400722865902</v>
+        <v>0.02039650960007705</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -7149,7 +7149,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.00720694979348397</v>
+        <v>0.008056401817036733</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -7157,7 +7157,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.002096403057867132</v>
+        <v>0.003254999729857518</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -7165,7 +7165,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.002342713155020671</v>
+        <v>0.0005860791144622317</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -7173,7 +7173,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.0002703476282092409</v>
+        <v>0.000356717421018289</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -7181,7 +7181,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>-0.005369609313718639</v>
+        <v>-0.001589855468492907</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7189,7 +7189,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.002334566064803451</v>
+        <v>0.001081129824670692</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -7197,7 +7197,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>-0.001090705847157648</v>
+        <v>-0.002172020526976206</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7205,7 +7205,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>0.003792525101981619</v>
+        <v>0.003398494789573922</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -7213,7 +7213,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.001076738322470707</v>
+        <v>0.001012510075030412</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -7221,7 +7221,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.004735464735129647</v>
+        <v>0.003815758281214857</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7229,7 +7229,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>-0.0001789693827252795</v>
+        <v>0.0002222509909321449</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7237,7 +7237,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.006788086172812608</v>
+        <v>0.003026462910124358</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7245,7 +7245,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>-0.009188505078018255</v>
+        <v>-0.007705670380629727</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -7253,7 +7253,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.00960273657951919</v>
+        <v>0.007678736451761314</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -7261,7 +7261,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.008377322882050182</v>
+        <v>0.01521471258701287</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -7269,7 +7269,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.007164817191689588</v>
+        <v>0.004970694249789954</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -7277,7 +7277,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.006529090901828793</v>
+        <v>0.006406816740519374</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7285,7 +7285,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>0.01389252591803315</v>
+        <v>0.01034083638841578</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -7485,7 +7485,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>-0.005595667374086025</v>
+        <v>-0.003137215220441334</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -7493,7 +7493,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>-0.01715229858515537</v>
+        <v>-0.0248414679514614</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -7501,7 +7501,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>-0.01684564562248017</v>
+        <v>-0.02311001528224173</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -7509,7 +7509,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>0.003314206768855034</v>
+        <v>0.01217849125696198</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -7517,7 +7517,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>0.02125335243520769</v>
+        <v>0.0208080520807077</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -7525,7 +7525,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>-0.00434786862541197</v>
+        <v>-0.0001036360240905158</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -7533,7 +7533,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>-0.01102988699117937</v>
+        <v>-0.01501573466399749</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -7541,7 +7541,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>-0.004726821098110246</v>
+        <v>-0.01285428641640309</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -7549,7 +7549,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>-0.00599652362332545</v>
+        <v>-0.009935521284027485</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -7557,7 +7557,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>-0.008183460732803164</v>
+        <v>-0.01000835309050556</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -7565,7 +7565,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.01708580045139892</v>
+        <v>0.01198678975996202</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -7589,7 +7589,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.00134295634779725</v>
+        <v>0.01195095579608572</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -7597,7 +7597,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.01843653270657342</v>
+        <v>0.003393413662651407</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -7605,7 +7605,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>-0.0007323033790988242</v>
+        <v>0.007915622908041459</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7613,7 +7613,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>-0.0005229802357875604</v>
+        <v>-0.003988673760721904</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -7621,7 +7621,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>-0.02043570344206344</v>
+        <v>-0.01202930504667374</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7629,7 +7629,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>-0.01765186861926121</v>
+        <v>-0.008620160837290974</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -7637,7 +7637,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.01328936748868877</v>
+        <v>0.006360209650083554</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -7645,7 +7645,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>-0.01927880551889138</v>
+        <v>-0.01422966075585387</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -7981,7 +7981,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>0.0005077512020374209</v>
+        <v>-0.01058224817820263</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7989,7 +7989,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>-0.003354824845773682</v>
+        <v>0.003836889290242827</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7997,7 +7997,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.006363141699617816</v>
+        <v>0.01007415561957419</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -8005,7 +8005,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>-0.004342488120043348</v>
+        <v>-0.001150752419378369</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -8013,7 +8013,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.004184029986497887</v>
+        <v>0.002529609521755548</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -8021,7 +8021,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.007756860948352833</v>
+        <v>0.008772994525699461</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -8029,7 +8029,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>0.004157823116831444</v>
+        <v>-0.0005690254005830367</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -8037,7 +8037,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>-0.003957783038823449</v>
+        <v>-0.005401796337965776</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -8045,7 +8045,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>-0.01093036900291304</v>
+        <v>0.001973359283441221</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -8053,7 +8053,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>0.01391263113211915</v>
+        <v>0.01272942166760026</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -8061,7 +8061,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>-0.0001247930568681427</v>
+        <v>0.00539775551613531</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -8069,7 +8069,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>-0.02681988873417455</v>
+        <v>-0.02648075119502627</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -8077,7 +8077,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.008062725510089287</v>
+        <v>0.01032343146717884</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -8085,7 +8085,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>2.755082041003843e-07</v>
+        <v>0.01549041962399856</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -8093,7 +8093,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.004882161862873827</v>
+        <v>-0.0001877290501840706</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -8101,7 +8101,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.0001823505390310988</v>
+        <v>-0.005975344232425883</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -8109,7 +8109,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>-0.003465382505731832</v>
+        <v>-0.01240708632861215</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8117,7 +8117,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>-0.006451888602405835</v>
+        <v>-0.003723796233118087</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -8125,7 +8125,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.002869826248846698</v>
+        <v>0.004261511750769855</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -8133,7 +8133,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>-0.002660333612799599</v>
+        <v>-0.003232852974851769</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8141,7 +8141,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>-0.01680424002879727</v>
+        <v>-0.01712025027226164</v>
       </c>
     </row>
     <row r="448" spans="1:2">
